--- a/src/site/sphinx/memo/Excelのフォーマットについて.xlsx
+++ b/src/site/sphinx/memo/Excelのフォーマットについて.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="14805" windowHeight="7965" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="4" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="書式の種類" sheetId="1" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="ビルトインフォーマット" sheetId="7" r:id="rId8"/>
     <sheet name="日時" sheetId="8" r:id="rId9"/>
     <sheet name="色" sheetId="9" r:id="rId10"/>
+    <sheet name="プロパティの定義" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="837">
   <si>
     <t>https://exceljet.net/lessons/how-to-use-scientific-formatting-in-excel</t>
   </si>
@@ -878,9 +879,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://poi.apache.org/apidocs/org/apache/poi/ss/usermodel/BuiltinFormats.html</t>
-  </si>
-  <si>
     <t>General</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -921,10 +919,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>$#,##0_);($#,##0)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>$#,##0_);[Red]($#,##0)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1209,9 +1203,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>http://dmcritchie.mvps.org/excel/colors.htm</t>
-  </si>
-  <si>
     <t>基本の8色の他、全56色</t>
     <rPh sb="0" eb="2">
       <t>キホン</t>
@@ -1231,9 +1222,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>https://msdn.microsoft.com/ja-jp/library/cc408992.aspx</t>
-  </si>
-  <si>
     <t>Miscrosoftのページ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2487,6 +2475,1035 @@
   </si>
   <si>
     <t>10進数</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://msdn.microsoft.com/ja-jp/library/cc408992.aspx</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://dmcritchie.mvps.org/excel/colors.htm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>色一覧</t>
+    <rPh sb="0" eb="1">
+      <t>イロ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name(ja)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HTML(RGB)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Red</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RGB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Green</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Blue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Black</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Yellow</t>
+  </si>
+  <si>
+    <t>Magenta</t>
+  </si>
+  <si>
+    <t>Cyan</t>
+  </si>
+  <si>
+    <t>黒</t>
+    <rPh sb="0" eb="1">
+      <t>クロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白</t>
+    <rPh sb="0" eb="1">
+      <t>シロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>赤</t>
+    <rPh sb="0" eb="1">
+      <t>アカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緑</t>
+    <rPh sb="0" eb="1">
+      <t>ミドリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青</t>
+    <rPh sb="0" eb="1">
+      <t>アオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>黄</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>紫</t>
+    <rPh sb="0" eb="1">
+      <t>ムラサキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>#000000</t>
+  </si>
+  <si>
+    <t>#FFFFFF</t>
+  </si>
+  <si>
+    <t>#FF0000</t>
+  </si>
+  <si>
+    <t>#00FF00</t>
+  </si>
+  <si>
+    <t>#0000FF</t>
+  </si>
+  <si>
+    <t>#FFFF00</t>
+  </si>
+  <si>
+    <t>#FF00FF</t>
+  </si>
+  <si>
+    <t>#00FFFF</t>
+  </si>
+  <si>
+    <t>#800000</t>
+  </si>
+  <si>
+    <t>#008000</t>
+  </si>
+  <si>
+    <t>#000080</t>
+  </si>
+  <si>
+    <t>#808000</t>
+  </si>
+  <si>
+    <t>#800080</t>
+  </si>
+  <si>
+    <t>#008080</t>
+  </si>
+  <si>
+    <t>#C0C0C0</t>
+  </si>
+  <si>
+    <t>#808080</t>
+  </si>
+  <si>
+    <t>#9999FF</t>
+  </si>
+  <si>
+    <t>#993366</t>
+  </si>
+  <si>
+    <t>#FFFFCC</t>
+  </si>
+  <si>
+    <t>#CCFFFF</t>
+  </si>
+  <si>
+    <t>#660066</t>
+  </si>
+  <si>
+    <t>#FF8080</t>
+  </si>
+  <si>
+    <t>#0066CC</t>
+  </si>
+  <si>
+    <t>#CCCCFF</t>
+  </si>
+  <si>
+    <t>#00CCFF</t>
+  </si>
+  <si>
+    <t>#CCFFCC</t>
+  </si>
+  <si>
+    <t>#FFFF99</t>
+  </si>
+  <si>
+    <t>#99CCFF</t>
+  </si>
+  <si>
+    <t>#FF99CC</t>
+  </si>
+  <si>
+    <t>#CC99FF</t>
+  </si>
+  <si>
+    <t>#FFCC99</t>
+  </si>
+  <si>
+    <t>#3366FF</t>
+  </si>
+  <si>
+    <t>#33CCCC</t>
+  </si>
+  <si>
+    <t>#99CC00</t>
+  </si>
+  <si>
+    <t>#FFCC00</t>
+  </si>
+  <si>
+    <t>#FF9900</t>
+  </si>
+  <si>
+    <t>#FF6600</t>
+  </si>
+  <si>
+    <t>#666699</t>
+  </si>
+  <si>
+    <t>#969696</t>
+  </si>
+  <si>
+    <t>#003366</t>
+  </si>
+  <si>
+    <t>#339966</t>
+  </si>
+  <si>
+    <t>#003300</t>
+  </si>
+  <si>
+    <t>#333300</t>
+  </si>
+  <si>
+    <t>#993300</t>
+  </si>
+  <si>
+    <t>#333399</t>
+  </si>
+  <si>
+    <t>#333333</t>
+  </si>
+  <si>
+    <t>プロパティファイルの値</t>
+    <rPh sb="10" eb="11">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティファイル「cellformatter.properties」で定義する値</t>
+    <rPh sb="36" eb="38">
+      <t>テイギ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>週の定義</t>
+    <rPh sb="0" eb="1">
+      <t>シュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abbrev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sunday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Monday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tuesday</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wednesday</t>
+  </si>
+  <si>
+    <t>Thursday</t>
+  </si>
+  <si>
+    <t>Friday</t>
+  </si>
+  <si>
+    <t>Saturday</t>
+  </si>
+  <si>
+    <t>ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Thu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日曜日</t>
+    <rPh sb="0" eb="2">
+      <t>ニチヨウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月曜日</t>
+    <rPh sb="0" eb="3">
+      <t>ゲツヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火曜日</t>
+    <rPh sb="0" eb="3">
+      <t>カヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水曜日</t>
+    <rPh sb="0" eb="3">
+      <t>スイヨウビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木曜日</t>
+  </si>
+  <si>
+    <t>金曜日</t>
+  </si>
+  <si>
+    <t>土曜日</t>
+  </si>
+  <si>
+    <t>日</t>
+    <rPh sb="0" eb="1">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水</t>
+    <rPh sb="0" eb="1">
+      <t>スイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木</t>
+    <rPh sb="0" eb="1">
+      <t>モク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金</t>
+    <rPh sb="0" eb="1">
+      <t>キン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月の定義</t>
+    <rPh sb="0" eb="1">
+      <t>ツキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abbrev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>leading</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>January</t>
+  </si>
+  <si>
+    <t>February</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>July</t>
+  </si>
+  <si>
+    <t>August</t>
+  </si>
+  <si>
+    <t>September</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>December</t>
+  </si>
+  <si>
+    <t>Jan</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Feb</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Mar</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Apr</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>May</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jun</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Jul</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aug</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sep</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oct</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Nov</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>J</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmmm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mmmmm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2月</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3月</t>
+  </si>
+  <si>
+    <t>4月</t>
+  </si>
+  <si>
+    <t>5月</t>
+  </si>
+  <si>
+    <t>6月</t>
+  </si>
+  <si>
+    <t>7月</t>
+  </si>
+  <si>
+    <t>8月</t>
+  </si>
+  <si>
+    <t>9月</t>
+  </si>
+  <si>
+    <t>10月</t>
+  </si>
+  <si>
+    <t>11月</t>
+  </si>
+  <si>
+    <t>12月</t>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ(ja)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>午前／午後</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abbrev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>am</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pm</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>P</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>午前</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゼン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>午後</t>
+    <rPh sb="0" eb="2">
+      <t>ゴゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$#,##0_);($#,##0)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://poi.apache.org/apidocs/org/apache/poi/ss/usermodel/BuiltinFormats.html</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>month.1.name=January</t>
+  </si>
+  <si>
+    <t>month.1.abbrev=Jan</t>
+  </si>
+  <si>
+    <t>month.1.leading=J</t>
+  </si>
+  <si>
+    <t>month.1.abbrev=1</t>
+  </si>
+  <si>
+    <t>month.1.leading=1</t>
+  </si>
+  <si>
+    <t>month.2.name=February</t>
+  </si>
+  <si>
+    <t>month.2.abbrev=Feb</t>
+  </si>
+  <si>
+    <t>month.2.leading=F</t>
+  </si>
+  <si>
+    <t>month.2.name=2月</t>
+  </si>
+  <si>
+    <t>month.2.abbrev=2</t>
+  </si>
+  <si>
+    <t>month.2.leading=2</t>
+  </si>
+  <si>
+    <t>month.3.name=March</t>
+  </si>
+  <si>
+    <t>month.3.abbrev=Mar</t>
+  </si>
+  <si>
+    <t>month.3.leading=M</t>
+  </si>
+  <si>
+    <t>month.3.name=3月</t>
+  </si>
+  <si>
+    <t>month.3.abbrev=3</t>
+  </si>
+  <si>
+    <t>month.3.leading=3</t>
+  </si>
+  <si>
+    <t>month.4.name=April</t>
+  </si>
+  <si>
+    <t>month.4.abbrev=Apr</t>
+  </si>
+  <si>
+    <t>month.4.leading=A</t>
+  </si>
+  <si>
+    <t>month.4.name=4月</t>
+  </si>
+  <si>
+    <t>month.4.abbrev=4</t>
+  </si>
+  <si>
+    <t>month.4.leading=4</t>
+  </si>
+  <si>
+    <t>month.5.name=May</t>
+  </si>
+  <si>
+    <t>month.5.abbrev=May</t>
+  </si>
+  <si>
+    <t>month.5.leading=M</t>
+  </si>
+  <si>
+    <t>month.5.name=5月</t>
+  </si>
+  <si>
+    <t>month.5.abbrev=5</t>
+  </si>
+  <si>
+    <t>month.5.leading=5</t>
+  </si>
+  <si>
+    <t>month.6.name=June</t>
+  </si>
+  <si>
+    <t>month.6.abbrev=Jun</t>
+  </si>
+  <si>
+    <t>month.6.leading=J</t>
+  </si>
+  <si>
+    <t>month.6.name=6月</t>
+  </si>
+  <si>
+    <t>month.6.abbrev=6</t>
+  </si>
+  <si>
+    <t>month.6.leading=6</t>
+  </si>
+  <si>
+    <t>month.7.name=July</t>
+  </si>
+  <si>
+    <t>month.7.abbrev=Jul</t>
+  </si>
+  <si>
+    <t>month.7.leading=J</t>
+  </si>
+  <si>
+    <t>month.7.name=7月</t>
+  </si>
+  <si>
+    <t>month.7.abbrev=7</t>
+  </si>
+  <si>
+    <t>month.7.leading=7</t>
+  </si>
+  <si>
+    <t>month.8.name=August</t>
+  </si>
+  <si>
+    <t>month.8.abbrev=Aug</t>
+  </si>
+  <si>
+    <t>month.8.leading=A</t>
+  </si>
+  <si>
+    <t>month.8.name=8月</t>
+  </si>
+  <si>
+    <t>month.8.abbrev=8</t>
+  </si>
+  <si>
+    <t>month.8.leading=8</t>
+  </si>
+  <si>
+    <t>month.9.name=September</t>
+  </si>
+  <si>
+    <t>month.9.abbrev=Sep</t>
+  </si>
+  <si>
+    <t>month.9.leading=S</t>
+  </si>
+  <si>
+    <t>month.9.name=9月</t>
+  </si>
+  <si>
+    <t>month.9.abbrev=9</t>
+  </si>
+  <si>
+    <t>month.9.leading=9</t>
+  </si>
+  <si>
+    <t>month.10.name=October</t>
+  </si>
+  <si>
+    <t>month.10.abbrev=Oct</t>
+  </si>
+  <si>
+    <t>month.10.leading=O</t>
+  </si>
+  <si>
+    <t>month.10.name=10月</t>
+  </si>
+  <si>
+    <t>month.10.abbrev=10</t>
+  </si>
+  <si>
+    <t>month.10.leading=1</t>
+  </si>
+  <si>
+    <t>month.11.name=November</t>
+  </si>
+  <si>
+    <t>month.11.abbrev=Nov</t>
+  </si>
+  <si>
+    <t>month.11.leading=N</t>
+  </si>
+  <si>
+    <t>month.11.name=11月</t>
+  </si>
+  <si>
+    <t>month.11.abbrev=11</t>
+  </si>
+  <si>
+    <t>month.11.leading=1</t>
+  </si>
+  <si>
+    <t>month.12.name=December</t>
+  </si>
+  <si>
+    <t>month.12.abbrev=Dec</t>
+  </si>
+  <si>
+    <t>month.12.leading=D</t>
+  </si>
+  <si>
+    <t>month.12.name=12月</t>
+  </si>
+  <si>
+    <t>month.12.abbrev=12</t>
+  </si>
+  <si>
+    <t>month.12.leading=1</t>
+  </si>
+  <si>
+    <t>四半期</t>
+    <rPh sb="0" eb="3">
+      <t>シハンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>abbrev</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ja</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1st quater</t>
+  </si>
+  <si>
+    <t>Q1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Q4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第１四半期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第２四半期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第３四半期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>第４四半期</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2nd quater</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3rd quarter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4th quarter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロパティ(ja)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>month.1.name=1月</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2513,7 +3530,7 @@
     <numFmt numFmtId="190" formatCode="[DBNum1][$-411]General"/>
     <numFmt numFmtId="191" formatCode="[DBNum2][$-411]General"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2545,8 +3562,35 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="52">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2574,6 +3618,282 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF00FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF800080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC0C0C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9999FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF993366"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF660066"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF8080"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF99CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3366FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF33CCCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9900"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6600"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666699"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF969696"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003366"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF339966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF003300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF993300"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333399"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF333333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2723,7 +4043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -2766,6 +4086,152 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="41" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="42" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="43" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="44" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="45" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="46" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="47" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="48" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="49" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="50" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2778,7 +4244,15 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="51" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
@@ -2786,6 +4260,12 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFFFCC"/>
+      <color rgb="FFFFFF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3386,7 +4866,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:B32"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
@@ -3422,32 +4902,2750 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C5:C10"/>
+  <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.875" customWidth="1"/>
+    <col min="9" max="9" width="27.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.15">
-      <c r="C10" t="s">
-        <v>177</v>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B2" s="30" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="30" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="31" t="s">
+        <v>570</v>
+      </c>
+      <c r="E9" s="96" t="s">
+        <v>578</v>
+      </c>
+      <c r="F9" s="96"/>
+      <c r="G9" s="96"/>
+      <c r="H9" s="97" t="s">
+        <v>642</v>
+      </c>
+      <c r="I9" s="98"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="40" t="s">
+        <v>571</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>572</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>573</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>575</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>577</v>
+      </c>
+      <c r="F10" s="40" t="s">
+        <v>580</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>582</v>
+      </c>
+      <c r="H10" s="89" t="s">
+        <v>574</v>
+      </c>
+      <c r="I10" s="89" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="32">
+        <v>1</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>583</v>
+      </c>
+      <c r="C11" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>596</v>
+      </c>
+      <c r="E11" s="32">
+        <v>0</v>
+      </c>
+      <c r="F11" s="32">
+        <v>0</v>
+      </c>
+      <c r="G11" s="32">
+        <v>0</v>
+      </c>
+      <c r="H11" s="88" t="str">
+        <f>"color."&amp;A11&amp;".html="&amp;D11</f>
+        <v>color.1.html=#000000</v>
+      </c>
+      <c r="I11" s="88" t="str">
+        <f>"color."&amp;A11&amp;".rgb="&amp;E11&amp;","&amp;F11&amp;","&amp;G11</f>
+        <v>color.1.rgb=0,0,0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="32">
+        <v>2</v>
+      </c>
+      <c r="B12" s="41" t="s">
+        <v>584</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="D12" s="43" t="s">
+        <v>597</v>
+      </c>
+      <c r="E12" s="32">
+        <v>255</v>
+      </c>
+      <c r="F12" s="32">
+        <v>255</v>
+      </c>
+      <c r="G12" s="32">
+        <v>255</v>
+      </c>
+      <c r="H12" s="88" t="str">
+        <f t="shared" ref="H12:H66" si="0">"color."&amp;A12&amp;".html="&amp;D12</f>
+        <v>color.2.html=#FFFFFF</v>
+      </c>
+      <c r="I12" s="88" t="str">
+        <f t="shared" ref="I12:I66" si="1">"color."&amp;A12&amp;".rgb="&amp;E12&amp;","&amp;F12&amp;","&amp;G12</f>
+        <v>color.2.rgb=255,255,255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="32">
+        <v>3</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>576</v>
+      </c>
+      <c r="C13" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="D13" s="44" t="s">
+        <v>598</v>
+      </c>
+      <c r="E13" s="32">
+        <v>255</v>
+      </c>
+      <c r="F13" s="32">
+        <v>0</v>
+      </c>
+      <c r="G13" s="32">
+        <v>0</v>
+      </c>
+      <c r="H13" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.3.html=#FF0000</v>
+      </c>
+      <c r="I13" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.3.rgb=255,0,0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="32">
+        <v>4</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>579</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>599</v>
+      </c>
+      <c r="E14" s="32">
+        <v>0</v>
+      </c>
+      <c r="F14" s="32">
+        <v>255</v>
+      </c>
+      <c r="G14" s="32">
+        <v>0</v>
+      </c>
+      <c r="H14" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.4.html=#00FF00</v>
+      </c>
+      <c r="I14" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.4.rgb=0,255,0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="32">
+        <v>5</v>
+      </c>
+      <c r="B15" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E15" s="32">
+        <v>0</v>
+      </c>
+      <c r="F15" s="32">
+        <v>0</v>
+      </c>
+      <c r="G15" s="32">
+        <v>255</v>
+      </c>
+      <c r="H15" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.5.html=#0000FF</v>
+      </c>
+      <c r="I15" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.5.rgb=0,0,255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="32">
+        <v>6</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>585</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="D16" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="E16" s="32">
+        <v>255</v>
+      </c>
+      <c r="F16" s="32">
+        <v>255</v>
+      </c>
+      <c r="G16" s="32">
+        <v>0</v>
+      </c>
+      <c r="H16" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.6.html=#FFFF00</v>
+      </c>
+      <c r="I16" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.6.rgb=255,255,0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="32">
+        <v>7</v>
+      </c>
+      <c r="B17" s="41" t="s">
+        <v>586</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="D17" s="48" t="s">
+        <v>602</v>
+      </c>
+      <c r="E17" s="32">
+        <v>255</v>
+      </c>
+      <c r="F17" s="32">
+        <v>0</v>
+      </c>
+      <c r="G17" s="32">
+        <v>255</v>
+      </c>
+      <c r="H17" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.7.html=#FF00FF</v>
+      </c>
+      <c r="I17" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.7.rgb=255,0,255</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="32">
+        <v>8</v>
+      </c>
+      <c r="B18" s="41" t="s">
+        <v>587</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="D18" s="49" t="s">
+        <v>603</v>
+      </c>
+      <c r="E18" s="32">
+        <v>0</v>
+      </c>
+      <c r="F18" s="32">
+        <v>255</v>
+      </c>
+      <c r="G18" s="32">
+        <v>255</v>
+      </c>
+      <c r="H18" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.8.html=#00FFFF</v>
+      </c>
+      <c r="I18" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.8.rgb=0,255,255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="32">
+        <v>9</v>
+      </c>
+      <c r="B19" s="32"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="E19" s="32">
+        <v>128</v>
+      </c>
+      <c r="F19" s="32">
+        <v>0</v>
+      </c>
+      <c r="G19" s="32">
+        <v>0</v>
+      </c>
+      <c r="H19" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.9.html=#800000</v>
+      </c>
+      <c r="I19" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.9.rgb=128,0,0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="32">
+        <v>10</v>
+      </c>
+      <c r="B20" s="32"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="51" t="s">
+        <v>605</v>
+      </c>
+      <c r="E20" s="32">
+        <v>0</v>
+      </c>
+      <c r="F20" s="32">
+        <v>128</v>
+      </c>
+      <c r="G20" s="32">
+        <v>0</v>
+      </c>
+      <c r="H20" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.10.html=#008000</v>
+      </c>
+      <c r="I20" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.10.rgb=0,128,0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="32">
+        <v>11</v>
+      </c>
+      <c r="B21" s="32"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="52" t="s">
+        <v>606</v>
+      </c>
+      <c r="E21" s="32">
+        <v>0</v>
+      </c>
+      <c r="F21" s="32">
+        <v>0</v>
+      </c>
+      <c r="G21" s="32">
+        <v>128</v>
+      </c>
+      <c r="H21" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.11.html=#000080</v>
+      </c>
+      <c r="I21" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.11.rgb=0,0,128</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="32">
+        <v>12</v>
+      </c>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="53" t="s">
+        <v>607</v>
+      </c>
+      <c r="E22" s="32">
+        <v>128</v>
+      </c>
+      <c r="F22" s="32">
+        <v>128</v>
+      </c>
+      <c r="G22" s="32">
+        <v>0</v>
+      </c>
+      <c r="H22" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.12.html=#808000</v>
+      </c>
+      <c r="I22" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.12.rgb=128,128,0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="32">
+        <v>13</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="54" t="s">
+        <v>608</v>
+      </c>
+      <c r="E23" s="32">
+        <v>128</v>
+      </c>
+      <c r="F23" s="32">
+        <v>0</v>
+      </c>
+      <c r="G23" s="32">
+        <v>128</v>
+      </c>
+      <c r="H23" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.13.html=#800080</v>
+      </c>
+      <c r="I23" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.13.rgb=128,0,128</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="32">
+        <v>14</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="55" t="s">
+        <v>609</v>
+      </c>
+      <c r="E24" s="32">
+        <v>0</v>
+      </c>
+      <c r="F24" s="32">
+        <v>128</v>
+      </c>
+      <c r="G24" s="32">
+        <v>128</v>
+      </c>
+      <c r="H24" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.14.html=#008080</v>
+      </c>
+      <c r="I24" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.14.rgb=0,128,128</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="32">
+        <v>15</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="56" t="s">
+        <v>610</v>
+      </c>
+      <c r="E25" s="32">
+        <v>192</v>
+      </c>
+      <c r="F25" s="32">
+        <v>192</v>
+      </c>
+      <c r="G25" s="32">
+        <v>192</v>
+      </c>
+      <c r="H25" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.15.html=#C0C0C0</v>
+      </c>
+      <c r="I25" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.15.rgb=192,192,192</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="32">
+        <v>16</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="57" t="s">
+        <v>611</v>
+      </c>
+      <c r="E26" s="32">
+        <v>128</v>
+      </c>
+      <c r="F26" s="32">
+        <v>128</v>
+      </c>
+      <c r="G26" s="32">
+        <v>128</v>
+      </c>
+      <c r="H26" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.16.html=#808080</v>
+      </c>
+      <c r="I26" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.16.rgb=128,128,128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="32">
+        <v>17</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="58" t="s">
+        <v>612</v>
+      </c>
+      <c r="E27" s="32">
+        <v>153</v>
+      </c>
+      <c r="F27" s="32">
+        <v>153</v>
+      </c>
+      <c r="G27" s="32">
+        <v>255</v>
+      </c>
+      <c r="H27" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.17.html=#9999FF</v>
+      </c>
+      <c r="I27" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.17.rgb=153,153,255</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="32">
+        <v>18</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="59" t="s">
+        <v>613</v>
+      </c>
+      <c r="E28" s="32">
+        <v>153</v>
+      </c>
+      <c r="F28" s="32">
+        <v>51</v>
+      </c>
+      <c r="G28" s="32">
+        <v>102</v>
+      </c>
+      <c r="H28" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.18.html=#993366</v>
+      </c>
+      <c r="I28" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.18.rgb=153,51,102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="32">
+        <v>19</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="60" t="s">
+        <v>614</v>
+      </c>
+      <c r="E29" s="32">
+        <v>255</v>
+      </c>
+      <c r="F29" s="32">
+        <v>255</v>
+      </c>
+      <c r="G29" s="32">
+        <v>204</v>
+      </c>
+      <c r="H29" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.19.html=#FFFFCC</v>
+      </c>
+      <c r="I29" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.19.rgb=255,255,204</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="32">
+        <v>20</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="32"/>
+      <c r="D30" s="61" t="s">
+        <v>615</v>
+      </c>
+      <c r="E30" s="32">
+        <v>204</v>
+      </c>
+      <c r="F30" s="32">
+        <v>255</v>
+      </c>
+      <c r="G30" s="32">
+        <v>255</v>
+      </c>
+      <c r="H30" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.20.html=#CCFFFF</v>
+      </c>
+      <c r="I30" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.20.rgb=204,255,255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="32">
+        <v>21</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="32"/>
+      <c r="D31" s="62" t="s">
+        <v>616</v>
+      </c>
+      <c r="E31" s="32">
+        <v>102</v>
+      </c>
+      <c r="F31" s="32">
+        <v>0</v>
+      </c>
+      <c r="G31" s="32">
+        <v>102</v>
+      </c>
+      <c r="H31" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.21.html=#660066</v>
+      </c>
+      <c r="I31" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.21.rgb=102,0,102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="32">
+        <v>22</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="32"/>
+      <c r="D32" s="63" t="s">
+        <v>617</v>
+      </c>
+      <c r="E32" s="32">
+        <v>255</v>
+      </c>
+      <c r="F32" s="32">
+        <v>128</v>
+      </c>
+      <c r="G32" s="32">
+        <v>128</v>
+      </c>
+      <c r="H32" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.22.html=#FF8080</v>
+      </c>
+      <c r="I32" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.22.rgb=255,128,128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="32">
+        <v>23</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="64" t="s">
+        <v>618</v>
+      </c>
+      <c r="E33" s="32">
+        <v>0</v>
+      </c>
+      <c r="F33" s="32">
+        <v>102</v>
+      </c>
+      <c r="G33" s="32">
+        <v>204</v>
+      </c>
+      <c r="H33" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.23.html=#0066CC</v>
+      </c>
+      <c r="I33" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.23.rgb=0,102,204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="32">
+        <v>24</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="65" t="s">
+        <v>619</v>
+      </c>
+      <c r="E34" s="32">
+        <v>204</v>
+      </c>
+      <c r="F34" s="32">
+        <v>204</v>
+      </c>
+      <c r="G34" s="32">
+        <v>255</v>
+      </c>
+      <c r="H34" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.24.html=#CCCCFF</v>
+      </c>
+      <c r="I34" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.24.rgb=204,204,255</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="32">
+        <v>25</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="52" t="s">
+        <v>606</v>
+      </c>
+      <c r="E35" s="32">
+        <v>0</v>
+      </c>
+      <c r="F35" s="32">
+        <v>0</v>
+      </c>
+      <c r="G35" s="32">
+        <v>128</v>
+      </c>
+      <c r="H35" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.25.html=#000080</v>
+      </c>
+      <c r="I35" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.25.rgb=0,0,128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="32">
+        <v>26</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="48" t="s">
+        <v>602</v>
+      </c>
+      <c r="E36" s="32">
+        <v>255</v>
+      </c>
+      <c r="F36" s="32">
+        <v>0</v>
+      </c>
+      <c r="G36" s="32">
+        <v>255</v>
+      </c>
+      <c r="H36" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.26.html=#FF00FF</v>
+      </c>
+      <c r="I36" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.26.rgb=255,0,255</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="32">
+        <v>27</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="32"/>
+      <c r="D37" s="47" t="s">
+        <v>601</v>
+      </c>
+      <c r="E37" s="32">
+        <v>255</v>
+      </c>
+      <c r="F37" s="32">
+        <v>255</v>
+      </c>
+      <c r="G37" s="32">
+        <v>0</v>
+      </c>
+      <c r="H37" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.27.html=#FFFF00</v>
+      </c>
+      <c r="I37" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.27.rgb=255,255,0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="32">
+        <v>28</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="32"/>
+      <c r="D38" s="49" t="s">
+        <v>603</v>
+      </c>
+      <c r="E38" s="32">
+        <v>0</v>
+      </c>
+      <c r="F38" s="32">
+        <v>255</v>
+      </c>
+      <c r="G38" s="32">
+        <v>255</v>
+      </c>
+      <c r="H38" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.28.html=#00FFFF</v>
+      </c>
+      <c r="I38" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.28.rgb=0,255,255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="32">
+        <v>29</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="54" t="s">
+        <v>608</v>
+      </c>
+      <c r="E39" s="32">
+        <v>128</v>
+      </c>
+      <c r="F39" s="32">
+        <v>0</v>
+      </c>
+      <c r="G39" s="32">
+        <v>128</v>
+      </c>
+      <c r="H39" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.29.html=#800080</v>
+      </c>
+      <c r="I39" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.29.rgb=128,0,128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="32">
+        <v>30</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="50" t="s">
+        <v>604</v>
+      </c>
+      <c r="E40" s="32">
+        <v>128</v>
+      </c>
+      <c r="F40" s="32">
+        <v>0</v>
+      </c>
+      <c r="G40" s="32">
+        <v>0</v>
+      </c>
+      <c r="H40" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.30.html=#800000</v>
+      </c>
+      <c r="I40" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.30.rgb=128,0,0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="32">
+        <v>31</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="55" t="s">
+        <v>609</v>
+      </c>
+      <c r="E41" s="32">
+        <v>0</v>
+      </c>
+      <c r="F41" s="32">
+        <v>128</v>
+      </c>
+      <c r="G41" s="32">
+        <v>128</v>
+      </c>
+      <c r="H41" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.31.html=#008080</v>
+      </c>
+      <c r="I41" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.31.rgb=0,128,128</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="32">
+        <v>32</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="46" t="s">
+        <v>600</v>
+      </c>
+      <c r="E42" s="32">
+        <v>0</v>
+      </c>
+      <c r="F42" s="32">
+        <v>0</v>
+      </c>
+      <c r="G42" s="32">
+        <v>255</v>
+      </c>
+      <c r="H42" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.32.html=#0000FF</v>
+      </c>
+      <c r="I42" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.32.rgb=0,0,255</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="32">
+        <v>33</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="32"/>
+      <c r="D43" s="66" t="s">
+        <v>620</v>
+      </c>
+      <c r="E43" s="32">
+        <v>0</v>
+      </c>
+      <c r="F43" s="32">
+        <v>204</v>
+      </c>
+      <c r="G43" s="32">
+        <v>255</v>
+      </c>
+      <c r="H43" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.33.html=#00CCFF</v>
+      </c>
+      <c r="I43" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.33.rgb=0,204,255</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="32">
+        <v>34</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="61" t="s">
+        <v>615</v>
+      </c>
+      <c r="E44" s="32">
+        <v>204</v>
+      </c>
+      <c r="F44" s="32">
+        <v>255</v>
+      </c>
+      <c r="G44" s="32">
+        <v>255</v>
+      </c>
+      <c r="H44" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.34.html=#CCFFFF</v>
+      </c>
+      <c r="I44" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.34.rgb=204,255,255</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A45" s="32">
+        <v>35</v>
+      </c>
+      <c r="B45" s="32"/>
+      <c r="C45" s="32"/>
+      <c r="D45" s="67" t="s">
+        <v>621</v>
+      </c>
+      <c r="E45" s="32">
+        <v>204</v>
+      </c>
+      <c r="F45" s="32">
+        <v>255</v>
+      </c>
+      <c r="G45" s="32">
+        <v>204</v>
+      </c>
+      <c r="H45" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.35.html=#CCFFCC</v>
+      </c>
+      <c r="I45" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.35.rgb=204,255,204</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A46" s="32">
+        <v>36</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="68" t="s">
+        <v>622</v>
+      </c>
+      <c r="E46" s="32">
+        <v>255</v>
+      </c>
+      <c r="F46" s="32">
+        <v>255</v>
+      </c>
+      <c r="G46" s="32">
+        <v>153</v>
+      </c>
+      <c r="H46" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.36.html=#FFFF99</v>
+      </c>
+      <c r="I46" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.36.rgb=255,255,153</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A47" s="32">
+        <v>37</v>
+      </c>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="69" t="s">
+        <v>623</v>
+      </c>
+      <c r="E47" s="32">
+        <v>153</v>
+      </c>
+      <c r="F47" s="32">
+        <v>204</v>
+      </c>
+      <c r="G47" s="32">
+        <v>255</v>
+      </c>
+      <c r="H47" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.37.html=#99CCFF</v>
+      </c>
+      <c r="I47" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.37.rgb=153,204,255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A48" s="32">
+        <v>38</v>
+      </c>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="70" t="s">
+        <v>624</v>
+      </c>
+      <c r="E48" s="32">
+        <v>255</v>
+      </c>
+      <c r="F48" s="32">
+        <v>153</v>
+      </c>
+      <c r="G48" s="32">
+        <v>204</v>
+      </c>
+      <c r="H48" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.38.html=#FF99CC</v>
+      </c>
+      <c r="I48" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.38.rgb=255,153,204</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A49" s="32">
+        <v>39</v>
+      </c>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="71" t="s">
+        <v>625</v>
+      </c>
+      <c r="E49" s="32">
+        <v>204</v>
+      </c>
+      <c r="F49" s="32">
+        <v>153</v>
+      </c>
+      <c r="G49" s="32">
+        <v>255</v>
+      </c>
+      <c r="H49" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.39.html=#CC99FF</v>
+      </c>
+      <c r="I49" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.39.rgb=204,153,255</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A50" s="32">
+        <v>40</v>
+      </c>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="72" t="s">
+        <v>626</v>
+      </c>
+      <c r="E50" s="32">
+        <v>255</v>
+      </c>
+      <c r="F50" s="32">
+        <v>204</v>
+      </c>
+      <c r="G50" s="32">
+        <v>153</v>
+      </c>
+      <c r="H50" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.40.html=#FFCC99</v>
+      </c>
+      <c r="I50" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.40.rgb=255,204,153</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A51" s="32">
+        <v>41</v>
+      </c>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="73" t="s">
+        <v>627</v>
+      </c>
+      <c r="E51" s="32">
+        <v>51</v>
+      </c>
+      <c r="F51" s="32">
+        <v>102</v>
+      </c>
+      <c r="G51" s="32">
+        <v>255</v>
+      </c>
+      <c r="H51" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.41.html=#3366FF</v>
+      </c>
+      <c r="I51" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.41.rgb=51,102,255</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A52" s="32">
+        <v>42</v>
+      </c>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="74" t="s">
+        <v>628</v>
+      </c>
+      <c r="E52" s="32">
+        <v>51</v>
+      </c>
+      <c r="F52" s="32">
+        <v>204</v>
+      </c>
+      <c r="G52" s="32">
+        <v>204</v>
+      </c>
+      <c r="H52" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.42.html=#33CCCC</v>
+      </c>
+      <c r="I52" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.42.rgb=51,204,204</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A53" s="32">
+        <v>43</v>
+      </c>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="75" t="s">
+        <v>629</v>
+      </c>
+      <c r="E53" s="32">
+        <v>153</v>
+      </c>
+      <c r="F53" s="32">
+        <v>204</v>
+      </c>
+      <c r="G53" s="32">
+        <v>0</v>
+      </c>
+      <c r="H53" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.43.html=#99CC00</v>
+      </c>
+      <c r="I53" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.43.rgb=153,204,0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A54" s="32">
+        <v>44</v>
+      </c>
+      <c r="B54" s="32"/>
+      <c r="C54" s="32"/>
+      <c r="D54" s="76" t="s">
+        <v>630</v>
+      </c>
+      <c r="E54" s="32">
+        <v>255</v>
+      </c>
+      <c r="F54" s="32">
+        <v>204</v>
+      </c>
+      <c r="G54" s="32">
+        <v>0</v>
+      </c>
+      <c r="H54" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.44.html=#FFCC00</v>
+      </c>
+      <c r="I54" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.44.rgb=255,204,0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A55" s="32">
+        <v>45</v>
+      </c>
+      <c r="B55" s="32"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="77" t="s">
+        <v>631</v>
+      </c>
+      <c r="E55" s="32">
+        <v>255</v>
+      </c>
+      <c r="F55" s="32">
+        <v>153</v>
+      </c>
+      <c r="G55" s="32">
+        <v>0</v>
+      </c>
+      <c r="H55" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.45.html=#FF9900</v>
+      </c>
+      <c r="I55" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.45.rgb=255,153,0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A56" s="32">
+        <v>46</v>
+      </c>
+      <c r="B56" s="32"/>
+      <c r="C56" s="32"/>
+      <c r="D56" s="78" t="s">
+        <v>632</v>
+      </c>
+      <c r="E56" s="32">
+        <v>255</v>
+      </c>
+      <c r="F56" s="32">
+        <v>102</v>
+      </c>
+      <c r="G56" s="32">
+        <v>0</v>
+      </c>
+      <c r="H56" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.46.html=#FF6600</v>
+      </c>
+      <c r="I56" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.46.rgb=255,102,0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A57" s="32">
+        <v>47</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="79" t="s">
+        <v>633</v>
+      </c>
+      <c r="E57" s="32">
+        <v>102</v>
+      </c>
+      <c r="F57" s="32">
+        <v>102</v>
+      </c>
+      <c r="G57" s="32">
+        <v>153</v>
+      </c>
+      <c r="H57" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.47.html=#666699</v>
+      </c>
+      <c r="I57" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.47.rgb=102,102,153</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A58" s="32">
+        <v>48</v>
+      </c>
+      <c r="B58" s="32"/>
+      <c r="C58" s="32"/>
+      <c r="D58" s="80" t="s">
+        <v>634</v>
+      </c>
+      <c r="E58" s="32">
+        <v>150</v>
+      </c>
+      <c r="F58" s="32">
+        <v>150</v>
+      </c>
+      <c r="G58" s="32">
+        <v>150</v>
+      </c>
+      <c r="H58" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.48.html=#969696</v>
+      </c>
+      <c r="I58" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.48.rgb=150,150,150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A59" s="32">
+        <v>49</v>
+      </c>
+      <c r="B59" s="32"/>
+      <c r="C59" s="32"/>
+      <c r="D59" s="81" t="s">
+        <v>635</v>
+      </c>
+      <c r="E59" s="32">
+        <v>0</v>
+      </c>
+      <c r="F59" s="32">
+        <v>51</v>
+      </c>
+      <c r="G59" s="32">
+        <v>102</v>
+      </c>
+      <c r="H59" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.49.html=#003366</v>
+      </c>
+      <c r="I59" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.49.rgb=0,51,102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A60" s="32">
+        <v>50</v>
+      </c>
+      <c r="B60" s="32"/>
+      <c r="C60" s="32"/>
+      <c r="D60" s="82" t="s">
+        <v>636</v>
+      </c>
+      <c r="E60" s="32">
+        <v>51</v>
+      </c>
+      <c r="F60" s="32">
+        <v>153</v>
+      </c>
+      <c r="G60" s="32">
+        <v>102</v>
+      </c>
+      <c r="H60" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.50.html=#339966</v>
+      </c>
+      <c r="I60" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.50.rgb=51,153,102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A61" s="32">
+        <v>51</v>
+      </c>
+      <c r="B61" s="32"/>
+      <c r="C61" s="32"/>
+      <c r="D61" s="83" t="s">
+        <v>637</v>
+      </c>
+      <c r="E61" s="32">
+        <v>0</v>
+      </c>
+      <c r="F61" s="32">
+        <v>51</v>
+      </c>
+      <c r="G61" s="32">
+        <v>0</v>
+      </c>
+      <c r="H61" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.51.html=#003300</v>
+      </c>
+      <c r="I61" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.51.rgb=0,51,0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A62" s="32">
+        <v>52</v>
+      </c>
+      <c r="B62" s="32"/>
+      <c r="C62" s="32"/>
+      <c r="D62" s="84" t="s">
+        <v>638</v>
+      </c>
+      <c r="E62" s="32">
+        <v>51</v>
+      </c>
+      <c r="F62" s="32">
+        <v>51</v>
+      </c>
+      <c r="G62" s="32">
+        <v>0</v>
+      </c>
+      <c r="H62" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.52.html=#333300</v>
+      </c>
+      <c r="I62" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.52.rgb=51,51,0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A63" s="32">
+        <v>53</v>
+      </c>
+      <c r="B63" s="32"/>
+      <c r="C63" s="32"/>
+      <c r="D63" s="85" t="s">
+        <v>639</v>
+      </c>
+      <c r="E63" s="32">
+        <v>153</v>
+      </c>
+      <c r="F63" s="32">
+        <v>51</v>
+      </c>
+      <c r="G63" s="32">
+        <v>0</v>
+      </c>
+      <c r="H63" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.53.html=#993300</v>
+      </c>
+      <c r="I63" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.53.rgb=153,51,0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A64" s="32">
+        <v>54</v>
+      </c>
+      <c r="B64" s="32"/>
+      <c r="C64" s="32"/>
+      <c r="D64" s="59" t="s">
+        <v>613</v>
+      </c>
+      <c r="E64" s="32">
+        <v>153</v>
+      </c>
+      <c r="F64" s="32">
+        <v>51</v>
+      </c>
+      <c r="G64" s="32">
+        <v>102</v>
+      </c>
+      <c r="H64" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.54.html=#993366</v>
+      </c>
+      <c r="I64" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.54.rgb=153,51,102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A65" s="32">
+        <v>55</v>
+      </c>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="86" t="s">
+        <v>640</v>
+      </c>
+      <c r="E65" s="32">
+        <v>51</v>
+      </c>
+      <c r="F65" s="32">
+        <v>51</v>
+      </c>
+      <c r="G65" s="32">
+        <v>153</v>
+      </c>
+      <c r="H65" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.55.html=#333399</v>
+      </c>
+      <c r="I65" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.55.rgb=51,51,153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A66" s="32">
+        <v>56</v>
+      </c>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="87" t="s">
+        <v>641</v>
+      </c>
+      <c r="E66" s="32">
+        <v>51</v>
+      </c>
+      <c r="F66" s="32">
+        <v>51</v>
+      </c>
+      <c r="G66" s="32">
+        <v>51</v>
+      </c>
+      <c r="H66" s="88" t="str">
+        <f t="shared" si="0"/>
+        <v>color.56.html=#333333</v>
+      </c>
+      <c r="I66" s="88" t="str">
+        <f t="shared" si="1"/>
+        <v>color.56.rgb=51,51,51</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="H9:I9"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39:E42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="5" width="9" style="90"/>
+    <col min="6" max="6" width="9.25" style="90" customWidth="1"/>
+    <col min="7" max="7" width="9.875" style="90" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="90" customWidth="1"/>
+    <col min="9" max="9" width="12.125" style="90" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="90"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A1" s="90" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A4" s="90" t="s">
+        <v>644</v>
+      </c>
+      <c r="D4" s="90" t="s">
+        <v>655</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>677</v>
+      </c>
+      <c r="H4" s="90" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A5" s="90" t="s">
+        <v>645</v>
+      </c>
+      <c r="B5" s="90" t="s">
+        <v>646</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>647</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>646</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>647</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>730</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>647</v>
+      </c>
+      <c r="H5" s="90" t="s">
+        <v>730</v>
+      </c>
+      <c r="I5" s="91" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A6" s="90">
+        <v>0</v>
+      </c>
+      <c r="B6" s="90" t="s">
+        <v>648</v>
+      </c>
+      <c r="C6" s="90" t="s">
+        <v>656</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>663</v>
+      </c>
+      <c r="E6" s="90" t="s">
+        <v>670</v>
+      </c>
+      <c r="F6" s="90" t="str">
+        <f>"week."&amp;A6&amp;".name="&amp;B6</f>
+        <v>week.0.name=Sunday</v>
+      </c>
+      <c r="G6" s="90" t="str">
+        <f>"week."&amp;A6&amp;".abbrev="&amp;C6</f>
+        <v>week.0.abbrev=Sun</v>
+      </c>
+      <c r="H6" s="90" t="str">
+        <f>"week."&amp;A6&amp;".name="&amp;D6</f>
+        <v>week.0.name=日曜日</v>
+      </c>
+      <c r="I6" s="90" t="str">
+        <f>"week."&amp;A6&amp;".abbrev="&amp;E6</f>
+        <v>week.0.abbrev=日</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A7" s="90">
+        <v>1</v>
+      </c>
+      <c r="B7" s="90" t="s">
+        <v>649</v>
+      </c>
+      <c r="C7" s="90" t="s">
+        <v>657</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>664</v>
+      </c>
+      <c r="E7" s="90" t="s">
+        <v>671</v>
+      </c>
+      <c r="F7" s="90" t="str">
+        <f t="shared" ref="F7:F12" si="0">"week."&amp;A7&amp;".name="&amp;B7</f>
+        <v>week.1.name=Monday</v>
+      </c>
+      <c r="G7" s="90" t="str">
+        <f t="shared" ref="G7:G12" si="1">"week."&amp;A7&amp;".abbrev="&amp;C7</f>
+        <v>week.1.abbrev=Mon</v>
+      </c>
+      <c r="H7" s="90" t="str">
+        <f t="shared" ref="H7:H12" si="2">"week."&amp;A7&amp;".name="&amp;D7</f>
+        <v>week.1.name=月曜日</v>
+      </c>
+      <c r="I7" s="90" t="str">
+        <f t="shared" ref="I7:I12" si="3">"week."&amp;A7&amp;".abbrev="&amp;E7</f>
+        <v>week.1.abbrev=月</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A8" s="90">
+        <v>2</v>
+      </c>
+      <c r="B8" s="90" t="s">
+        <v>650</v>
+      </c>
+      <c r="C8" s="90" t="s">
+        <v>658</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>665</v>
+      </c>
+      <c r="E8" s="90" t="s">
+        <v>672</v>
+      </c>
+      <c r="F8" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>week.2.name=Tuesday</v>
+      </c>
+      <c r="G8" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>week.2.abbrev=Tue</v>
+      </c>
+      <c r="H8" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v>week.2.name=火曜日</v>
+      </c>
+      <c r="I8" s="90" t="str">
+        <f t="shared" si="3"/>
+        <v>week.2.abbrev=火</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A9" s="90">
+        <v>3</v>
+      </c>
+      <c r="B9" s="90" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" s="90" t="s">
+        <v>659</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>666</v>
+      </c>
+      <c r="E9" s="90" t="s">
+        <v>673</v>
+      </c>
+      <c r="F9" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>week.3.name=Wednesday</v>
+      </c>
+      <c r="G9" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>week.3.abbrev=Wed</v>
+      </c>
+      <c r="H9" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v>week.3.name=水曜日</v>
+      </c>
+      <c r="I9" s="90" t="str">
+        <f t="shared" si="3"/>
+        <v>week.3.abbrev=水</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A10" s="90">
+        <v>4</v>
+      </c>
+      <c r="B10" s="90" t="s">
+        <v>652</v>
+      </c>
+      <c r="C10" s="90" t="s">
+        <v>660</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>667</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>674</v>
+      </c>
+      <c r="F10" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>week.4.name=Thursday</v>
+      </c>
+      <c r="G10" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>week.4.abbrev=Thu</v>
+      </c>
+      <c r="H10" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v>week.4.name=木曜日</v>
+      </c>
+      <c r="I10" s="90" t="str">
+        <f t="shared" si="3"/>
+        <v>week.4.abbrev=木</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A11" s="90">
+        <v>5</v>
+      </c>
+      <c r="B11" s="90" t="s">
+        <v>653</v>
+      </c>
+      <c r="C11" s="90" t="s">
+        <v>661</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>668</v>
+      </c>
+      <c r="E11" s="90" t="s">
+        <v>675</v>
+      </c>
+      <c r="F11" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>week.5.name=Friday</v>
+      </c>
+      <c r="G11" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>week.5.abbrev=Fri</v>
+      </c>
+      <c r="H11" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v>week.5.name=金曜日</v>
+      </c>
+      <c r="I11" s="90" t="str">
+        <f t="shared" si="3"/>
+        <v>week.5.abbrev=金</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A12" s="90">
+        <v>6</v>
+      </c>
+      <c r="B12" s="90" t="s">
+        <v>654</v>
+      </c>
+      <c r="C12" s="90" t="s">
+        <v>662</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>669</v>
+      </c>
+      <c r="E12" s="90" t="s">
+        <v>676</v>
+      </c>
+      <c r="F12" s="90" t="str">
+        <f t="shared" si="0"/>
+        <v>week.6.name=Saturday</v>
+      </c>
+      <c r="G12" s="90" t="str">
+        <f t="shared" si="1"/>
+        <v>week.6.abbrev=Sat</v>
+      </c>
+      <c r="H12" s="90" t="str">
+        <f t="shared" si="2"/>
+        <v>week.6.name=土曜日</v>
+      </c>
+      <c r="I12" s="90" t="str">
+        <f t="shared" si="3"/>
+        <v>week.6.abbrev=土</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A15" s="90" t="s">
+        <v>678</v>
+      </c>
+      <c r="B15" s="90" t="s">
+        <v>715</v>
+      </c>
+      <c r="C15" s="90" t="s">
+        <v>716</v>
+      </c>
+      <c r="D15" s="90" t="s">
+        <v>717</v>
+      </c>
+      <c r="E15" s="90" t="s">
+        <v>655</v>
+      </c>
+      <c r="H15" s="90" t="s">
+        <v>732</v>
+      </c>
+      <c r="K15" s="90" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A16" s="90" t="s">
+        <v>679</v>
+      </c>
+      <c r="B16" s="90" t="s">
+        <v>680</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>681</v>
+      </c>
+      <c r="D16" s="90" t="s">
+        <v>682</v>
+      </c>
+      <c r="E16" s="91" t="s">
+        <v>680</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>681</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>682</v>
+      </c>
+      <c r="H16" s="90" t="s">
+        <v>680</v>
+      </c>
+      <c r="I16" s="90" t="s">
+        <v>681</v>
+      </c>
+      <c r="J16" s="90" t="s">
+        <v>682</v>
+      </c>
+      <c r="K16" s="90" t="s">
+        <v>680</v>
+      </c>
+      <c r="L16" s="90" t="s">
+        <v>681</v>
+      </c>
+      <c r="M16" s="90" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A17" s="90">
+        <v>1</v>
+      </c>
+      <c r="B17" s="90" t="s">
+        <v>683</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>695</v>
+      </c>
+      <c r="D17" s="90" t="s">
+        <v>707</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>718</v>
+      </c>
+      <c r="F17" s="90">
+        <v>1</v>
+      </c>
+      <c r="G17" s="90">
+        <v>1</v>
+      </c>
+      <c r="H17" s="90" t="s">
+        <v>746</v>
+      </c>
+      <c r="I17" s="90" t="s">
+        <v>747</v>
+      </c>
+      <c r="J17" s="90" t="s">
+        <v>748</v>
+      </c>
+      <c r="K17" s="90" t="s">
+        <v>836</v>
+      </c>
+      <c r="L17" s="90" t="s">
+        <v>749</v>
+      </c>
+      <c r="M17" s="90" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A18" s="90">
+        <v>2</v>
+      </c>
+      <c r="B18" s="90" t="s">
+        <v>684</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>696</v>
+      </c>
+      <c r="D18" s="90" t="s">
+        <v>708</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>719</v>
+      </c>
+      <c r="F18" s="90">
+        <v>2</v>
+      </c>
+      <c r="G18" s="90">
+        <v>2</v>
+      </c>
+      <c r="H18" s="90" t="s">
+        <v>751</v>
+      </c>
+      <c r="I18" s="90" t="s">
+        <v>752</v>
+      </c>
+      <c r="J18" s="90" t="s">
+        <v>753</v>
+      </c>
+      <c r="K18" s="90" t="s">
+        <v>754</v>
+      </c>
+      <c r="L18" s="90" t="s">
+        <v>755</v>
+      </c>
+      <c r="M18" s="90" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A19" s="90">
+        <v>3</v>
+      </c>
+      <c r="B19" s="91" t="s">
+        <v>685</v>
+      </c>
+      <c r="C19" s="90" t="s">
+        <v>697</v>
+      </c>
+      <c r="D19" s="90" t="s">
+        <v>709</v>
+      </c>
+      <c r="E19" s="91" t="s">
+        <v>720</v>
+      </c>
+      <c r="F19" s="90">
+        <v>3</v>
+      </c>
+      <c r="G19" s="90">
+        <v>3</v>
+      </c>
+      <c r="H19" s="90" t="s">
+        <v>757</v>
+      </c>
+      <c r="I19" s="90" t="s">
+        <v>758</v>
+      </c>
+      <c r="J19" s="90" t="s">
+        <v>759</v>
+      </c>
+      <c r="K19" s="90" t="s">
+        <v>760</v>
+      </c>
+      <c r="L19" s="90" t="s">
+        <v>761</v>
+      </c>
+      <c r="M19" s="90" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A20" s="90">
+        <v>4</v>
+      </c>
+      <c r="B20" s="91" t="s">
+        <v>686</v>
+      </c>
+      <c r="C20" s="90" t="s">
+        <v>698</v>
+      </c>
+      <c r="D20" s="90" t="s">
+        <v>710</v>
+      </c>
+      <c r="E20" s="91" t="s">
+        <v>721</v>
+      </c>
+      <c r="F20" s="91">
+        <v>4</v>
+      </c>
+      <c r="G20" s="90">
+        <v>4</v>
+      </c>
+      <c r="H20" s="90" t="s">
+        <v>763</v>
+      </c>
+      <c r="I20" s="90" t="s">
+        <v>764</v>
+      </c>
+      <c r="J20" s="90" t="s">
+        <v>765</v>
+      </c>
+      <c r="K20" s="90" t="s">
+        <v>766</v>
+      </c>
+      <c r="L20" s="90" t="s">
+        <v>767</v>
+      </c>
+      <c r="M20" s="90" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A21" s="91">
+        <v>5</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>687</v>
+      </c>
+      <c r="C21" s="90" t="s">
+        <v>699</v>
+      </c>
+      <c r="D21" s="90" t="s">
+        <v>709</v>
+      </c>
+      <c r="E21" s="91" t="s">
+        <v>722</v>
+      </c>
+      <c r="F21" s="91">
+        <v>5</v>
+      </c>
+      <c r="G21" s="90">
+        <v>5</v>
+      </c>
+      <c r="H21" s="90" t="s">
+        <v>769</v>
+      </c>
+      <c r="I21" s="90" t="s">
+        <v>770</v>
+      </c>
+      <c r="J21" s="90" t="s">
+        <v>771</v>
+      </c>
+      <c r="K21" s="90" t="s">
+        <v>772</v>
+      </c>
+      <c r="L21" s="90" t="s">
+        <v>773</v>
+      </c>
+      <c r="M21" s="90" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A22" s="91">
+        <v>6</v>
+      </c>
+      <c r="B22" s="91" t="s">
+        <v>688</v>
+      </c>
+      <c r="C22" s="90" t="s">
+        <v>700</v>
+      </c>
+      <c r="D22" s="90" t="s">
+        <v>707</v>
+      </c>
+      <c r="E22" s="91" t="s">
+        <v>723</v>
+      </c>
+      <c r="F22" s="91">
+        <v>6</v>
+      </c>
+      <c r="G22" s="90">
+        <v>6</v>
+      </c>
+      <c r="H22" s="90" t="s">
+        <v>775</v>
+      </c>
+      <c r="I22" s="90" t="s">
+        <v>776</v>
+      </c>
+      <c r="J22" s="90" t="s">
+        <v>777</v>
+      </c>
+      <c r="K22" s="90" t="s">
+        <v>778</v>
+      </c>
+      <c r="L22" s="90" t="s">
+        <v>779</v>
+      </c>
+      <c r="M22" s="90" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A23" s="91">
+        <v>7</v>
+      </c>
+      <c r="B23" s="91" t="s">
+        <v>689</v>
+      </c>
+      <c r="C23" s="90" t="s">
+        <v>701</v>
+      </c>
+      <c r="D23" s="90" t="s">
+        <v>707</v>
+      </c>
+      <c r="E23" s="91" t="s">
+        <v>724</v>
+      </c>
+      <c r="F23" s="91">
+        <v>7</v>
+      </c>
+      <c r="G23" s="90">
+        <v>7</v>
+      </c>
+      <c r="H23" s="90" t="s">
+        <v>781</v>
+      </c>
+      <c r="I23" s="90" t="s">
+        <v>782</v>
+      </c>
+      <c r="J23" s="90" t="s">
+        <v>783</v>
+      </c>
+      <c r="K23" s="90" t="s">
+        <v>784</v>
+      </c>
+      <c r="L23" s="90" t="s">
+        <v>785</v>
+      </c>
+      <c r="M23" s="90" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A24" s="91">
+        <v>8</v>
+      </c>
+      <c r="B24" s="91" t="s">
+        <v>690</v>
+      </c>
+      <c r="C24" s="90" t="s">
+        <v>702</v>
+      </c>
+      <c r="D24" s="90" t="s">
+        <v>710</v>
+      </c>
+      <c r="E24" s="91" t="s">
+        <v>725</v>
+      </c>
+      <c r="F24" s="91">
+        <v>8</v>
+      </c>
+      <c r="G24" s="90">
+        <v>8</v>
+      </c>
+      <c r="H24" s="90" t="s">
+        <v>787</v>
+      </c>
+      <c r="I24" s="90" t="s">
+        <v>788</v>
+      </c>
+      <c r="J24" s="90" t="s">
+        <v>789</v>
+      </c>
+      <c r="K24" s="90" t="s">
+        <v>790</v>
+      </c>
+      <c r="L24" s="90" t="s">
+        <v>791</v>
+      </c>
+      <c r="M24" s="90" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A25" s="91">
+        <v>9</v>
+      </c>
+      <c r="B25" s="91" t="s">
+        <v>691</v>
+      </c>
+      <c r="C25" s="90" t="s">
+        <v>703</v>
+      </c>
+      <c r="D25" s="90" t="s">
+        <v>711</v>
+      </c>
+      <c r="E25" s="91" t="s">
+        <v>726</v>
+      </c>
+      <c r="F25" s="91">
+        <v>9</v>
+      </c>
+      <c r="G25" s="90">
+        <v>9</v>
+      </c>
+      <c r="H25" s="90" t="s">
+        <v>793</v>
+      </c>
+      <c r="I25" s="90" t="s">
+        <v>794</v>
+      </c>
+      <c r="J25" s="90" t="s">
+        <v>795</v>
+      </c>
+      <c r="K25" s="90" t="s">
+        <v>796</v>
+      </c>
+      <c r="L25" s="90" t="s">
+        <v>797</v>
+      </c>
+      <c r="M25" s="90" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A26" s="91">
+        <v>10</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>692</v>
+      </c>
+      <c r="C26" s="90" t="s">
+        <v>704</v>
+      </c>
+      <c r="D26" s="90" t="s">
+        <v>712</v>
+      </c>
+      <c r="E26" s="91" t="s">
+        <v>727</v>
+      </c>
+      <c r="F26" s="91">
+        <v>10</v>
+      </c>
+      <c r="G26" s="90">
+        <v>1</v>
+      </c>
+      <c r="H26" s="90" t="s">
+        <v>799</v>
+      </c>
+      <c r="I26" s="90" t="s">
+        <v>800</v>
+      </c>
+      <c r="J26" s="90" t="s">
+        <v>801</v>
+      </c>
+      <c r="K26" s="90" t="s">
+        <v>802</v>
+      </c>
+      <c r="L26" s="90" t="s">
+        <v>803</v>
+      </c>
+      <c r="M26" s="90" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A27" s="91">
+        <v>11</v>
+      </c>
+      <c r="B27" s="91" t="s">
+        <v>693</v>
+      </c>
+      <c r="C27" s="90" t="s">
+        <v>705</v>
+      </c>
+      <c r="D27" s="90" t="s">
+        <v>713</v>
+      </c>
+      <c r="E27" s="91" t="s">
+        <v>728</v>
+      </c>
+      <c r="F27" s="91">
+        <v>11</v>
+      </c>
+      <c r="G27" s="90">
+        <v>1</v>
+      </c>
+      <c r="H27" s="90" t="s">
+        <v>805</v>
+      </c>
+      <c r="I27" s="90" t="s">
+        <v>806</v>
+      </c>
+      <c r="J27" s="90" t="s">
+        <v>807</v>
+      </c>
+      <c r="K27" s="90" t="s">
+        <v>808</v>
+      </c>
+      <c r="L27" s="90" t="s">
+        <v>809</v>
+      </c>
+      <c r="M27" s="90" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A28" s="91">
+        <v>12</v>
+      </c>
+      <c r="B28" s="91" t="s">
+        <v>694</v>
+      </c>
+      <c r="C28" s="90" t="s">
+        <v>706</v>
+      </c>
+      <c r="D28" s="90" t="s">
+        <v>714</v>
+      </c>
+      <c r="E28" s="91" t="s">
+        <v>729</v>
+      </c>
+      <c r="F28" s="91">
+        <v>12</v>
+      </c>
+      <c r="G28" s="90">
+        <v>1</v>
+      </c>
+      <c r="H28" s="90" t="s">
+        <v>811</v>
+      </c>
+      <c r="I28" s="90" t="s">
+        <v>812</v>
+      </c>
+      <c r="J28" s="90" t="s">
+        <v>813</v>
+      </c>
+      <c r="K28" s="90" t="s">
+        <v>814</v>
+      </c>
+      <c r="L28" s="90" t="s">
+        <v>815</v>
+      </c>
+      <c r="M28" s="90" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A31" s="90" t="s">
+        <v>733</v>
+      </c>
+      <c r="D31" s="90" t="s">
+        <v>655</v>
+      </c>
+      <c r="F31" s="90" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A32" s="90" t="s">
+        <v>679</v>
+      </c>
+      <c r="B32" s="90" t="s">
+        <v>734</v>
+      </c>
+      <c r="C32" s="90" t="s">
+        <v>735</v>
+      </c>
+      <c r="D32" s="91" t="s">
+        <v>646</v>
+      </c>
+      <c r="E32" s="91" t="s">
+        <v>647</v>
+      </c>
+      <c r="F32" s="90" t="s">
+        <v>730</v>
+      </c>
+      <c r="G32" s="91" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="90" t="s">
+        <v>736</v>
+      </c>
+      <c r="B33" s="90" t="s">
+        <v>738</v>
+      </c>
+      <c r="C33" s="90" t="s">
+        <v>740</v>
+      </c>
+      <c r="D33" s="90" t="s">
+        <v>742</v>
+      </c>
+      <c r="E33" s="90" t="s">
+        <v>742</v>
+      </c>
+      <c r="F33" s="90" t="str">
+        <f>"day."&amp;A33&amp;".name="&amp;B33</f>
+        <v>day.am.name=AM</v>
+      </c>
+      <c r="G33" s="90" t="str">
+        <f>"week."&amp;A33&amp;".abbrev="&amp;C33</f>
+        <v>week.am.abbrev=A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="90" t="s">
+        <v>737</v>
+      </c>
+      <c r="B34" s="90" t="s">
+        <v>739</v>
+      </c>
+      <c r="C34" s="90" t="s">
+        <v>741</v>
+      </c>
+      <c r="D34" s="90" t="s">
+        <v>743</v>
+      </c>
+      <c r="E34" s="90" t="s">
+        <v>743</v>
+      </c>
+      <c r="F34" s="90" t="str">
+        <f>"day."&amp;A34&amp;".name="&amp;B34</f>
+        <v>day.pm.name=PM</v>
+      </c>
+      <c r="G34" s="90" t="str">
+        <f>"week."&amp;A34&amp;".abbrev="&amp;C34</f>
+        <v>week.pm.abbrev=P</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="90" t="s">
+        <v>817</v>
+      </c>
+      <c r="D37" s="90" t="s">
+        <v>821</v>
+      </c>
+      <c r="F37" s="90" t="s">
+        <v>822</v>
+      </c>
+      <c r="H37" s="90" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="90" t="s">
+        <v>818</v>
+      </c>
+      <c r="B38" s="90" t="s">
+        <v>819</v>
+      </c>
+      <c r="C38" s="90" t="s">
+        <v>820</v>
+      </c>
+      <c r="D38" s="90" t="s">
+        <v>819</v>
+      </c>
+      <c r="E38" s="90" t="s">
+        <v>820</v>
+      </c>
+      <c r="F38" s="90" t="s">
+        <v>819</v>
+      </c>
+      <c r="G38" s="90" t="s">
+        <v>820</v>
+      </c>
+      <c r="H38" s="90" t="s">
+        <v>819</v>
+      </c>
+      <c r="I38" s="90" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="90">
+        <v>1</v>
+      </c>
+      <c r="B39" s="90" t="s">
+        <v>823</v>
+      </c>
+      <c r="C39" s="90" t="s">
+        <v>824</v>
+      </c>
+      <c r="D39" s="90" t="s">
+        <v>828</v>
+      </c>
+      <c r="E39" s="90" t="s">
+        <v>824</v>
+      </c>
+      <c r="F39" s="90" t="str">
+        <f>"quaterTerm."&amp;$A39&amp;".name="&amp;B39</f>
+        <v>quaterTerm.1.name=1st quater</v>
+      </c>
+      <c r="G39" s="90" t="str">
+        <f>"quaterTerm."&amp;$A39&amp;".abbrev="&amp;C39</f>
+        <v>quaterTerm.1.abbrev=Q1</v>
+      </c>
+      <c r="H39" s="90" t="str">
+        <f>"quaterTerm."&amp;$A39&amp;".name="&amp;D39</f>
+        <v>quaterTerm.1.name=第１四半期</v>
+      </c>
+      <c r="I39" s="90" t="str">
+        <f>"quaterTerm."&amp;$A39&amp;".abbrev="&amp;E39</f>
+        <v>quaterTerm.1.abbrev=Q1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="90">
+        <v>2</v>
+      </c>
+      <c r="B40" s="90" t="s">
+        <v>832</v>
+      </c>
+      <c r="C40" s="90" t="s">
+        <v>825</v>
+      </c>
+      <c r="D40" s="90" t="s">
+        <v>829</v>
+      </c>
+      <c r="E40" s="90" t="s">
+        <v>825</v>
+      </c>
+      <c r="F40" s="90" t="str">
+        <f>"quaterTerm."&amp;$A40&amp;".name="&amp;B40</f>
+        <v>quaterTerm.2.name=2nd quater</v>
+      </c>
+      <c r="G40" s="90" t="str">
+        <f>"quaterTerm."&amp;$A40&amp;".abbrev="&amp;C40</f>
+        <v>quaterTerm.2.abbrev=Q2</v>
+      </c>
+      <c r="H40" s="90" t="str">
+        <f>"quaterTerm."&amp;$A40&amp;".name="&amp;D40</f>
+        <v>quaterTerm.2.name=第２四半期</v>
+      </c>
+      <c r="I40" s="90" t="str">
+        <f>"quaterTerm."&amp;$A40&amp;".abbrev="&amp;E40</f>
+        <v>quaterTerm.2.abbrev=Q2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="90">
+        <v>3</v>
+      </c>
+      <c r="B41" s="90" t="s">
+        <v>833</v>
+      </c>
+      <c r="C41" s="90" t="s">
+        <v>826</v>
+      </c>
+      <c r="D41" s="90" t="s">
+        <v>830</v>
+      </c>
+      <c r="E41" s="90" t="s">
+        <v>826</v>
+      </c>
+      <c r="F41" s="90" t="str">
+        <f>"quaterTerm."&amp;$A41&amp;".name="&amp;B41</f>
+        <v>quaterTerm.3.name=3rd quarter</v>
+      </c>
+      <c r="G41" s="90" t="str">
+        <f>"quaterTerm."&amp;$A41&amp;".abbrev="&amp;C41</f>
+        <v>quaterTerm.3.abbrev=Q3</v>
+      </c>
+      <c r="H41" s="90" t="str">
+        <f>"quaterTerm."&amp;$A41&amp;".name="&amp;D41</f>
+        <v>quaterTerm.3.name=第３四半期</v>
+      </c>
+      <c r="I41" s="90" t="str">
+        <f>"quaterTerm."&amp;$A41&amp;".abbrev="&amp;E41</f>
+        <v>quaterTerm.3.abbrev=Q3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="90">
+        <v>4</v>
+      </c>
+      <c r="B42" s="90" t="s">
+        <v>834</v>
+      </c>
+      <c r="C42" s="90" t="s">
+        <v>827</v>
+      </c>
+      <c r="D42" s="90" t="s">
+        <v>831</v>
+      </c>
+      <c r="E42" s="90" t="s">
+        <v>827</v>
+      </c>
+      <c r="F42" s="90" t="str">
+        <f>"quaterTerm."&amp;$A42&amp;".name="&amp;B42</f>
+        <v>quaterTerm.4.name=4th quarter</v>
+      </c>
+      <c r="G42" s="90" t="str">
+        <f>"quaterTerm."&amp;$A42&amp;".abbrev="&amp;C42</f>
+        <v>quaterTerm.4.abbrev=Q4</v>
+      </c>
+      <c r="H42" s="90" t="str">
+        <f>"quaterTerm."&amp;$A42&amp;".name="&amp;D42</f>
+        <v>quaterTerm.4.name=第４四半期</v>
+      </c>
+      <c r="I42" s="90" t="str">
+        <f>"quaterTerm."&amp;$A42&amp;".abbrev="&amp;E42</f>
+        <v>quaterTerm.4.abbrev=Q4</v>
       </c>
     </row>
   </sheetData>
@@ -3540,7 +7738,7 @@
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B14" s="30" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.15">
@@ -3560,43 +7758,43 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D30" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3613,59 +7811,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="D1" s="44" t="s">
-        <v>571</v>
-      </c>
-      <c r="E1" s="44" t="s">
-        <v>220</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>221</v>
-      </c>
-      <c r="G1" s="44" t="s">
-        <v>570</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>571</v>
+      <c r="A1" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>567</v>
+      </c>
+      <c r="E1" s="40" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="40" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>566</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D2" s="32">
         <v>1078</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="H2" s="32">
         <v>1081</v>
@@ -3673,25 +7871,25 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="32" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C3" s="32" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D3" s="32">
         <v>1052</v>
       </c>
       <c r="E3" s="32" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F3" s="32" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G3" s="32" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="H3" s="32">
         <v>1038</v>
@@ -3699,25 +7897,25 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="32" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C4" s="32" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="D4" s="32">
         <v>14337</v>
       </c>
       <c r="E4" s="32" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F4" s="32" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H4" s="32">
         <v>1039</v>
@@ -3725,25 +7923,25 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C5" s="32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="D5" s="32">
         <v>15361</v>
       </c>
       <c r="E5" s="32" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F5" s="32" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G5" s="32" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="H5" s="32">
         <v>1057</v>
@@ -3751,25 +7949,25 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="32" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D6" s="32">
         <v>5121</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="H6" s="32">
         <v>1040</v>
@@ -3777,25 +7975,25 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="32" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="D7" s="32">
         <v>3073</v>
       </c>
       <c r="E7" s="32" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F7" s="32" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G7" s="32" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H7" s="32">
         <v>2064</v>
@@ -3803,25 +8001,25 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="32" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B8" s="32" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C8" s="32" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="D8" s="32">
         <v>2049</v>
       </c>
       <c r="E8" s="32" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="F8" s="32" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="G8" s="32" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="H8" s="32">
         <v>1041</v>
@@ -3829,25 +8027,25 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="32" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C9" s="32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D9" s="32">
         <v>11265</v>
       </c>
       <c r="E9" s="32" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F9" s="32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="G9" s="32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H9" s="32">
         <v>1042</v>
@@ -3855,25 +8053,25 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="32" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C10" s="32" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="D10" s="32">
         <v>13313</v>
       </c>
       <c r="E10" s="32" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F10" s="32" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G10" s="32" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="H10" s="32">
         <v>1062</v>
@@ -3881,25 +8079,25 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="32" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="C11" s="32" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D11" s="32">
         <v>12289</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F11" s="32" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G11" s="32" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="H11" s="32">
         <v>1063</v>
@@ -3907,25 +8105,25 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C12" s="32" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="D12" s="32">
         <v>4097</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F12" s="32" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G12" s="32" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="H12" s="32">
         <v>1071</v>
@@ -3933,25 +8131,25 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="32" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="D13" s="32">
         <v>6145</v>
       </c>
       <c r="E13" s="32" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F13" s="32" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G13" s="32" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="H13" s="32">
         <v>1086</v>
@@ -3959,25 +8157,25 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A14" s="32" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D14" s="32">
         <v>8193</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G14" s="32" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H14" s="32">
         <v>1082</v>
@@ -3985,25 +8183,25 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A15" s="32" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="D15" s="32">
         <v>16385</v>
       </c>
       <c r="E15" s="32" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F15" s="32" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G15" s="32" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H15" s="32">
         <v>1044</v>
@@ -4011,25 +8209,25 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A16" s="32" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C16" s="32" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D16" s="32">
         <v>1025</v>
       </c>
       <c r="E16" s="32" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F16" s="32" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G16" s="32" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H16" s="32">
         <v>1045</v>
@@ -4037,25 +8235,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A17" s="32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="C17" s="32" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D17" s="32">
         <v>10241</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G17" s="32" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="H17" s="32">
         <v>2070</v>
@@ -4063,25 +8261,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A18" s="32" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C18" s="32" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="D18" s="32">
         <v>7169</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G18" s="32" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="H18" s="32">
         <v>1046</v>
@@ -4089,25 +8287,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A19" s="32" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C19" s="32" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D19" s="32">
         <v>9217</v>
       </c>
       <c r="E19" s="32" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F19" s="32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G19" s="32" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="H19" s="32">
         <v>1047</v>
@@ -4115,25 +8313,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A20" s="32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C20" s="32" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D20" s="32">
         <v>1069</v>
       </c>
       <c r="E20" s="32" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F20" s="32" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G20" s="32" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="H20" s="32">
         <v>1048</v>
@@ -4141,25 +8339,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A21" s="32" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C21" s="32" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D21" s="32">
         <v>1059</v>
       </c>
       <c r="E21" s="32" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F21" s="32" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G21" s="32" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H21" s="32">
         <v>2072</v>
@@ -4167,25 +8365,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A22" s="32" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="C22" s="32" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D22" s="32">
         <v>1026</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F22" s="32" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G22" s="32" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="H22" s="32">
         <v>1049</v>
@@ -4193,25 +8391,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A23" s="32" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C23" s="32" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D23" s="32">
         <v>1027</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F23" s="32" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G23" s="32" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="H23" s="32">
         <v>2073</v>
@@ -4219,25 +8417,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A24" s="32" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C24" s="32" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="D24" s="32">
         <v>2052</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="H24" s="32">
         <v>3098</v>
@@ -4245,25 +8443,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A25" s="32" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C25" s="32" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D25" s="32">
         <v>3076</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F25" s="32" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H25" s="32">
         <v>1074</v>
@@ -4271,25 +8469,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A26" s="32" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C26" s="32" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D26" s="32">
         <v>4100</v>
       </c>
       <c r="E26" s="32" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F26" s="32" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H26" s="32">
         <v>1060</v>
@@ -4297,25 +8495,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A27" s="32" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="C27" s="32" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D27" s="32">
         <v>1028</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F27" s="32" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H27" s="32">
         <v>1051</v>
@@ -4323,25 +8521,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A28" s="32" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="C28" s="32" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D28" s="32">
         <v>1050</v>
       </c>
       <c r="E28" s="32" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F28" s="32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H28" s="32">
         <v>1070</v>
@@ -4349,25 +8547,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A29" s="32" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="C29" s="32" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D29" s="32">
         <v>1029</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F29" s="32" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G29" s="32" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H29" s="32">
         <v>1034</v>
@@ -4375,25 +8573,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A30" s="32" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C30" s="32" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D30" s="32">
         <v>1030</v>
       </c>
       <c r="E30" s="32" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F30" s="32" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G30" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H30" s="32">
         <v>11274</v>
@@ -4401,25 +8599,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A31" s="32" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="C31" s="32" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D31" s="32">
         <v>1043</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="F31" s="32" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G31" s="32" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="H31" s="32">
         <v>16394</v>
@@ -4427,25 +8625,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A32" s="32" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="C32" s="32" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D32" s="32">
         <v>2067</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="F32" s="32" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G32" s="32" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H32" s="32">
         <v>13322</v>
@@ -4453,25 +8651,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A33" s="32" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C33" s="32" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D33" s="32">
         <v>3081</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="F33" s="32" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G33" s="32" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H33" s="32">
         <v>9226</v>
@@ -4479,25 +8677,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A34" s="32" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="C34" s="32" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D34" s="32">
         <v>10249</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F34" s="32" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="G34" s="32" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H34" s="32">
         <v>5130</v>
@@ -4505,25 +8703,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A35" s="32" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C35" s="32" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="D35" s="32">
         <v>4105</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="F35" s="32" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G35" s="32" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H35" s="32">
         <v>7178</v>
@@ -4531,25 +8729,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A36" s="32" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B36" s="32" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C36" s="32" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D36" s="32">
         <v>6153</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="F36" s="32" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G36" s="32" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="H36" s="32">
         <v>12298</v>
@@ -4557,25 +8755,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A37" s="32" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C37" s="32" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D37" s="32">
         <v>8201</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="F37" s="32" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G37" s="32" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H37" s="32">
         <v>4106</v>
@@ -4583,25 +8781,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A38" s="32" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="B38" s="32" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="C38" s="32" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D38" s="32">
         <v>5129</v>
       </c>
       <c r="E38" s="32" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F38" s="32" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="G38" s="32" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H38" s="32">
         <v>18442</v>
@@ -4609,25 +8807,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A39" s="32" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="B39" s="32" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C39" s="32" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D39" s="32">
         <v>7177</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F39" s="32" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G39" s="32" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="H39" s="32">
         <v>2058</v>
@@ -4635,25 +8833,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A40" s="32" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C40" s="32" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D40" s="32">
         <v>11273</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="F40" s="32" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="G40" s="32" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H40" s="32">
         <v>19466</v>
@@ -4661,25 +8859,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A41" s="32" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B41" s="32" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="C41" s="32" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D41" s="32">
         <v>2057</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F41" s="32" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G41" s="32" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="H41" s="32">
         <v>6154</v>
@@ -4687,25 +8885,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A42" s="32" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="B42" s="32" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="C42" s="32" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D42" s="32">
         <v>1033</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F42" s="32" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="G42" s="32" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="H42" s="32">
         <v>10250</v>
@@ -4713,25 +8911,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="B43" s="32" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="C43" s="32" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D43" s="32">
         <v>1061</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F43" s="32" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="H43" s="32">
         <v>20490</v>
@@ -4739,25 +8937,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A44" s="32" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="B44" s="32" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C44" s="32" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="D44" s="32">
         <v>1065</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F44" s="32" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="H44" s="32">
         <v>15370</v>
@@ -4765,25 +8963,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A45" s="32" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="B45" s="32" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="C45" s="32" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="D45" s="32">
         <v>1035</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F45" s="32" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="G45" s="32" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="H45" s="32">
         <v>17418</v>
@@ -4791,25 +8989,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A46" s="32" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="B46" s="32" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C46" s="32" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D46" s="32">
         <v>1080</v>
       </c>
       <c r="E46" s="32" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="F46" s="32" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H46" s="32">
         <v>14346</v>
@@ -4817,25 +9015,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A47" s="32" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B47" s="32" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C47" s="32" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D47" s="32">
         <v>1036</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="H47" s="32">
         <v>8202</v>
@@ -4843,25 +9041,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A48" s="32" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B48" s="32" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="C48" s="32" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D48" s="32">
         <v>2060</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="H48" s="32">
         <v>1072</v>
@@ -4869,25 +9067,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A49" s="32" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="B49" s="32" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="C49" s="32" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D49" s="32">
         <v>3084</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="H49" s="32">
         <v>1053</v>
@@ -4895,25 +9093,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A50" s="32" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B50" s="32" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="C50" s="32" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D50" s="32">
         <v>5132</v>
       </c>
       <c r="E50" s="32" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="H50" s="32">
         <v>2077</v>
@@ -4921,25 +9119,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A51" s="32" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B51" s="32" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C51" s="32" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D51" s="32">
         <v>4108</v>
       </c>
       <c r="E51" s="32" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F51" s="32" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="G51" s="32" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H51" s="32">
         <v>1054</v>
@@ -4947,25 +9145,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A52" s="32" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B52" s="32" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C52" s="32" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D52" s="32">
         <v>1084</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="F52" s="32" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="G52" s="32" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="H52" s="32">
         <v>1055</v>
@@ -4973,25 +9171,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A53" s="32" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B53" s="32" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="C53" s="32" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D53" s="32">
         <v>1031</v>
       </c>
       <c r="E53" s="32" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="F53" s="32" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G53" s="32" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="H53" s="32">
         <v>1073</v>
@@ -4999,25 +9197,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A54" s="32" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B54" s="32" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C54" s="32" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D54" s="32">
         <v>3079</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="F54" s="32" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G54" s="32" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="H54" s="32">
         <v>1058</v>
@@ -5025,25 +9223,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A55" s="32" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="B55" s="32" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="C55" s="32" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D55" s="32">
         <v>5127</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="F55" s="32" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G55" s="32" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="H55" s="32">
         <v>1056</v>
@@ -5051,25 +9249,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A56" s="32" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="B56" s="32" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="C56" s="32" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D56" s="32">
         <v>4103</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="F56" s="32" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="G56" s="32" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="H56" s="32">
         <v>1066</v>
@@ -5077,25 +9275,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A57" s="32" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B57" s="32" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="C57" s="32" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="D57" s="32">
         <v>2055</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="F57" s="32" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G57" s="32" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="H57" s="32">
         <v>1076</v>
@@ -5103,25 +9301,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A58" s="32" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="B58" s="32" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="C58" s="32" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="D58" s="32">
         <v>1032</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="F58" s="32" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G58" s="32" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H58" s="32">
         <v>1085</v>
@@ -5129,25 +9327,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A59" s="32" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="B59" s="32" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="C59" s="32" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="D59" s="32">
         <v>1037</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F59" s="32" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="G59" s="32" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="H59" s="32">
         <v>1077</v>
@@ -5303,7 +9501,7 @@
     </row>
     <row r="34" spans="3:7" x14ac:dyDescent="0.15">
       <c r="F34" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="35" spans="3:7" x14ac:dyDescent="0.15">
@@ -5702,8 +9900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5763,21 +9961,21 @@
     </row>
     <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>745</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="92" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="41" t="s">
+      <c r="C18" s="92"/>
+      <c r="D18" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="43"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="95"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="34" t="s">
@@ -5787,16 +9985,16 @@
         <v>65</v>
       </c>
       <c r="D19" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E19" s="36" t="s">
         <v>68</v>
       </c>
       <c r="F19" s="36" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G19" s="37" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.15">
@@ -5809,7 +10007,7 @@
       </c>
       <c r="D20" s="33"/>
       <c r="E20" s="33" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F20" s="33"/>
       <c r="G20" s="32"/>
@@ -5843,7 +10041,7 @@
         <v>105</v>
       </c>
       <c r="E22" s="33" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="32"/>
@@ -5857,7 +10055,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E23" s="33" t="s">
         <v>106</v>
@@ -5874,7 +10072,7 @@
         <v>4</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E24" s="33" t="s">
         <v>107</v>
@@ -5891,16 +10089,16 @@
         <v>5</v>
       </c>
       <c r="D25" s="38" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E25" s="38" t="s">
-        <v>135</v>
+        <v>744</v>
       </c>
       <c r="F25" s="33" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G25" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.15">
@@ -5912,16 +10110,16 @@
         <v>6</v>
       </c>
       <c r="D26" s="38" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E26" s="38" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F26" s="33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G26" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.15">
@@ -5933,16 +10131,16 @@
         <v>7</v>
       </c>
       <c r="D27" s="38" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E27" s="38" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F27" s="33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.15">
@@ -5954,16 +10152,16 @@
         <v>8</v>
       </c>
       <c r="D28" s="38" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E28" s="38" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F28" s="33" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.15">
@@ -6026,7 +10224,7 @@
         <v>12</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E32" s="33" t="s">
         <v>111</v>
@@ -6060,14 +10258,14 @@
         <v>14</v>
       </c>
       <c r="D34" s="38" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E34" s="33" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.15">
@@ -6079,7 +10277,7 @@
         <v>15</v>
       </c>
       <c r="D35" s="33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E35" s="33" t="s">
         <v>113</v>
@@ -6096,7 +10294,7 @@
         <v>16</v>
       </c>
       <c r="D36" s="33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E36" s="33" t="s">
         <v>114</v>
@@ -6113,7 +10311,7 @@
         <v>17</v>
       </c>
       <c r="D37" s="33" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E37" s="33" t="s">
         <v>115</v>
@@ -6130,7 +10328,7 @@
         <v>18</v>
       </c>
       <c r="D38" s="33" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E38" s="33" t="s">
         <v>116</v>
@@ -6147,7 +10345,7 @@
         <v>19</v>
       </c>
       <c r="D39" s="33" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E39" s="33" t="s">
         <v>117</v>
@@ -6164,7 +10362,7 @@
         <v>20</v>
       </c>
       <c r="D40" s="33" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E40" s="33" t="s">
         <v>118</v>
@@ -6181,7 +10379,7 @@
         <v>21</v>
       </c>
       <c r="D41" s="33" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E41" s="33" t="s">
         <v>119</v>
@@ -6198,7 +10396,7 @@
         <v>22</v>
       </c>
       <c r="D42" s="32" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E42" s="32" t="s">
         <v>120</v>
@@ -6215,16 +10413,16 @@
         <v>37</v>
       </c>
       <c r="D43" s="39" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E43" s="39" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F43" s="33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G43" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.15">
@@ -6236,16 +10434,16 @@
         <v>38</v>
       </c>
       <c r="D44" s="39" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E44" s="39" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F44" s="33" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G44" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.15">
@@ -6257,16 +10455,16 @@
         <v>39</v>
       </c>
       <c r="D45" s="39" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E45" s="39" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F45" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G45" s="32" t="s">
         <v>150</v>
-      </c>
-      <c r="G45" s="32" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.15">
@@ -6278,16 +10476,16 @@
         <v>40</v>
       </c>
       <c r="D46" s="39" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="E46" s="39" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F46" s="33" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G46" s="32" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.15">
@@ -6299,16 +10497,16 @@
         <v>41</v>
       </c>
       <c r="D47" s="39" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E47" s="39" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F47" s="32" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="G47" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.15">
@@ -6320,16 +10518,16 @@
         <v>42</v>
       </c>
       <c r="D48" s="39" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E48" s="39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F48" s="32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G48" s="32" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.15">
@@ -6341,16 +10539,16 @@
         <v>43</v>
       </c>
       <c r="D49" s="39" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="E49" s="39" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F49" s="32" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G49" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.15">
@@ -6362,16 +10560,16 @@
         <v>44</v>
       </c>
       <c r="D50" s="39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E50" s="39" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F50" s="32" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G50" s="32" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.15">
@@ -6383,7 +10581,7 @@
         <v>45</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="E51" s="32" t="s">
         <v>121</v>
@@ -6400,14 +10598,14 @@
         <v>46</v>
       </c>
       <c r="D52" s="39" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="E52" s="32" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F52" s="32"/>
       <c r="G52" s="32" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.15">
@@ -6419,7 +10617,7 @@
         <v>47</v>
       </c>
       <c r="D53" s="32" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="E53" s="32" t="s">
         <v>122</v>
@@ -6436,7 +10634,7 @@
         <v>48</v>
       </c>
       <c r="D54" s="32" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E54" s="32" t="s">
         <v>123</v>
@@ -6456,7 +10654,7 @@
         <v>124</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F55" s="32"/>
       <c r="G55" s="32"/>
@@ -6476,7 +10674,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
@@ -6484,66 +10682,66 @@
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.15">
       <c r="H2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.15">
       <c r="H4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.15">
       <c r="H7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.15">
       <c r="I9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B10" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B11" s="30" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B59" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="M59" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/src/site/sphinx/memo/Excelのフォーマットについて.xlsx
+++ b/src/site/sphinx/memo/Excelのフォーマットについて.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="4" activeTab="10"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="書式の種類" sheetId="1" r:id="rId1"/>
@@ -4904,7 +4904,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -6540,7 +6540,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E39" sqref="E39:E42"/>
     </sheetView>
   </sheetViews>
@@ -7695,7 +7695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -7811,11 +7811,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:H59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="25.625" customWidth="1"/>
+    <col min="5" max="5" width="25.75" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">

--- a/src/site/sphinx/memo/Excelのフォーマットについて.xlsx
+++ b/src/site/sphinx/memo/Excelのフォーマットについて.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="180" windowWidth="14805" windowHeight="7935" firstSheet="4" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="書式の種類" sheetId="1" r:id="rId1"/>
@@ -16,15 +16,16 @@
     <sheet name="分数について" sheetId="6" r:id="rId7"/>
     <sheet name="ビルトインフォーマット" sheetId="7" r:id="rId8"/>
     <sheet name="日時" sheetId="8" r:id="rId9"/>
-    <sheet name="色" sheetId="9" r:id="rId10"/>
-    <sheet name="プロパティの定義" sheetId="11" r:id="rId11"/>
+    <sheet name="日時（内部表現）" sheetId="12" r:id="rId10"/>
+    <sheet name="色" sheetId="9" r:id="rId11"/>
+    <sheet name="プロパティの定義" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="884">
   <si>
     <t>https://exceljet.net/lessons/how-to-use-scientific-formatting-in-excel</t>
   </si>
@@ -3504,6 +3505,608 @@
   </si>
   <si>
     <t>month.1.name=1月</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付の内部表現</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ナイブ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値→Date型への変換表現。</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>整数部が日付、小数部が時間部を表現する。</t>
+    <rPh sb="0" eb="3">
+      <t>セイスウブ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒヅケ</t>
+    </rPh>
+    <rPh sb="7" eb="10">
+      <t>ショウスウブ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ブ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>数値</t>
+    <rPh sb="0" eb="2">
+      <t>スウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1日（24時間）は、1。</t>
+    <rPh sb="2" eb="3">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <rPh sb="0" eb="2">
+      <t>セツメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0の時。</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1日進む。</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日進む。</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月末（31日経過）。</t>
+    <rPh sb="0" eb="2">
+      <t>ゲツマツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>翌月（32日経過）。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨクゲツ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1秒経過</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2秒経過</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10秒経過</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1分経過</t>
+    <rPh sb="1" eb="2">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1時間経過</t>
+    <rPh sb="1" eb="3">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>59秒経過</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>59分経過</t>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23時間経過</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>23時間59分59秒経過</t>
+    <rPh sb="2" eb="4">
+      <t>ジカン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>翌月の月末（閏年）（60日経過）。</t>
+    <rPh sb="0" eb="2">
+      <t>ヨクゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゲツマツ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2ヶ月後(61日経過)</t>
+    <rPh sb="2" eb="3">
+      <t>ゲツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ケイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Excel上は、1900年は閏年。</t>
+    <rPh sb="6" eb="7">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレゴリオ歴</t>
+    <rPh sb="5" eb="6">
+      <t>レキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://ja.wikipedia.org/wiki/%E9%96%8F%E5%B9%B4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>グレゴリオ暦では、次の規則に従って400年間に（100回ではなく）97回の閏年を設ける。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>①西暦年が4で割り切れる年は閏年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>③ただし、西暦年が400で割り切れる年は閏年</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→これはExcelの開始日が1900年1月0日であり、1月～2月は1日少ないので、2月末でこの差が解消される。</t>
+    <rPh sb="10" eb="12">
+      <t>カイシ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ビ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>スク</t>
+    </rPh>
+    <rPh sb="42" eb="43">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>マツ</t>
+    </rPh>
+    <rPh sb="47" eb="48">
+      <t>サ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>カイショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javaの基準日</t>
+    <rPh sb="5" eb="8">
+      <t>キジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閏年の開始日</t>
+    <rPh sb="0" eb="1">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>閏日</t>
+    <rPh sb="0" eb="1">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excelの基準日の1つである閏年の開始日</t>
+    <rPh sb="6" eb="9">
+      <t>キジュンビ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="18" eb="21">
+      <t>カイシビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Excelの基準日の1つである閏日</t>
+    <rPh sb="15" eb="16">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1秒経過（小数10桁）</t>
+    <rPh sb="1" eb="2">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケイカ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ケタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・1秒は1/(60*60*24)=1.15741e-005。</t>
+    <rPh sb="2" eb="3">
+      <t>ビョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ただし、グレゴリオ歴では平年（閏年でない）なので、1日ずれる。</t>
+    <rPh sb="10" eb="11">
+      <t>レキ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘイネン</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>トシ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>②ただし、西暦年が100で割り切れる年は平年（閏年でない）</t>
+    <rPh sb="23" eb="24">
+      <t>ウルウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>トシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※1900年2月29日はJava上は3月1日という条件。</t>
+    <rPh sb="5" eb="6">
+      <t>ネン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ジョウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UTCの基準日</t>
+    <rPh sb="4" eb="7">
+      <t>キジュンビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Javaで処理するときの注意事項。</t>
+    <rPh sb="5" eb="7">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ジコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・Excelはタイムゾーンがないので、タイムゾーンが異なるOS上でExcelの値を取得しても同じ値となる。</t>
+    <rPh sb="26" eb="27">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ジョウ</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・それを、Javaでそのまま処理を行おうとすると、環境のタイムゾーン分ずれが発生する。</t>
+    <rPh sb="14" eb="16">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>カンキョウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ブン</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 精度は、小数第13位の精度でよい。</t>
+    <rPh sb="1" eb="3">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ショウスウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>セイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>　しかし、Date型→数値に変換する場合、Javaはミリ秒まであるので、さらに3桁多い、16桁の精度が必要。</t>
+    <rPh sb="9" eb="10">
+      <t>カタ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>スウチ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヘンカン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ビョウ</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="41" eb="42">
+      <t>オオ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>ケタ</t>
+    </rPh>
+    <rPh sb="48" eb="50">
+      <t>セイド</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t>ヒツヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -3511,7 +4114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="17">
+  <numFmts count="20">
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="&quot;+ &quot;@"/>
     <numFmt numFmtId="177" formatCode="&quot;正@&quot;#.0;&quot;負&quot;#.0;&quot;ゼロ\;&quot;&quot;ゼ&quot;&quot;ロ&quot;;&quot;\;\@ &quot;@"/>
@@ -3529,6 +4132,9 @@
     <numFmt numFmtId="189" formatCode="[Color4][=1]aaa;[Blue][=7]aaa;aaa"/>
     <numFmt numFmtId="190" formatCode="[DBNum1][$-411]General"/>
     <numFmt numFmtId="191" formatCode="[DBNum2][$-411]General"/>
+    <numFmt numFmtId="192" formatCode="#,##0.000000_);[Red]\(#,##0.000000\)"/>
+    <numFmt numFmtId="193" formatCode="yyyy/mm/dd\ hh:mm:ss;@"/>
+    <numFmt numFmtId="194" formatCode="0.00000000000_);[Red]\(0.00000000000\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -3590,7 +4196,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="52">
+  <fills count="53">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3897,6 +4503,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -4043,7 +4655,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -4232,6 +4844,16 @@
     <xf numFmtId="0" fontId="0" fillId="51" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="192" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="52" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4902,6 +5524,455 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="5.25" customWidth="1"/>
+    <col min="2" max="2" width="19.625" customWidth="1"/>
+    <col min="3" max="3" width="21" customWidth="1"/>
+    <col min="4" max="4" width="29.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E3" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>838</v>
+      </c>
+      <c r="F4" s="30" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="F5" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>842</v>
+      </c>
+      <c r="F7" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B14" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" s="96" t="s">
+        <v>860</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>841</v>
+      </c>
+      <c r="C16" s="94" t="s">
+        <v>840</v>
+      </c>
+      <c r="D16" s="94" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A17" s="95">
+        <v>1</v>
+      </c>
+      <c r="B17" s="93">
+        <v>0</v>
+      </c>
+      <c r="C17" s="97">
+        <v>0</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="95">
+        <v>2</v>
+      </c>
+      <c r="B18" s="93">
+        <v>1</v>
+      </c>
+      <c r="C18" s="97">
+        <v>1</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="95">
+        <v>3</v>
+      </c>
+      <c r="B19" s="93">
+        <v>2</v>
+      </c>
+      <c r="C19" s="97">
+        <v>2</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="95">
+        <v>4</v>
+      </c>
+      <c r="B20" s="93">
+        <v>31</v>
+      </c>
+      <c r="C20" s="97">
+        <v>31</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="95">
+        <v>5</v>
+      </c>
+      <c r="B21" s="93">
+        <v>32</v>
+      </c>
+      <c r="C21" s="97">
+        <v>32</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="95">
+        <v>6</v>
+      </c>
+      <c r="B22" s="93">
+        <v>60</v>
+      </c>
+      <c r="C22" s="97">
+        <v>60</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>858</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="95">
+        <v>7</v>
+      </c>
+      <c r="B23" s="93">
+        <v>61</v>
+      </c>
+      <c r="C23" s="97">
+        <v>61</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>859</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="95">
+        <v>8</v>
+      </c>
+      <c r="B24" s="93">
+        <v>1.000011574074074</v>
+      </c>
+      <c r="C24" s="97">
+        <v>1.00001157407407</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>849</v>
+      </c>
+      <c r="F24" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="95">
+        <v>9</v>
+      </c>
+      <c r="B25" s="93">
+        <v>1.000011574</v>
+      </c>
+      <c r="C25" s="97">
+        <v>1.000011574</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="95">
+        <v>10</v>
+      </c>
+      <c r="B26" s="93">
+        <v>1.0000231481481481</v>
+      </c>
+      <c r="C26" s="97">
+        <v>1.0000231481481481</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>850</v>
+      </c>
+      <c r="F26" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="95">
+        <v>11</v>
+      </c>
+      <c r="B27" s="93">
+        <v>1.0001157407407408</v>
+      </c>
+      <c r="C27" s="97">
+        <v>1.0001157407407408</v>
+      </c>
+      <c r="D27" s="32" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="95">
+        <v>12</v>
+      </c>
+      <c r="B28" s="93">
+        <v>1.0006828703703703</v>
+      </c>
+      <c r="C28" s="97">
+        <v>1.0006828703703703</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="95">
+        <v>13</v>
+      </c>
+      <c r="B29" s="93">
+        <v>1.0006944444444446</v>
+      </c>
+      <c r="C29" s="97">
+        <v>1.0006944444444399</v>
+      </c>
+      <c r="D29" s="32" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="95">
+        <v>14</v>
+      </c>
+      <c r="B30" s="93">
+        <v>1.0409722222222222</v>
+      </c>
+      <c r="C30" s="97">
+        <v>1.0409722222222222</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="95">
+        <v>15</v>
+      </c>
+      <c r="B31" s="93">
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="C31" s="97">
+        <v>1.0416666666666701</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32" s="95">
+        <v>16</v>
+      </c>
+      <c r="B32" s="93">
+        <v>1.9583333333333335</v>
+      </c>
+      <c r="C32" s="97">
+        <v>1.9583333333333335</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A33" s="95">
+        <v>17</v>
+      </c>
+      <c r="B33" s="93">
+        <v>1.9999884259259257</v>
+      </c>
+      <c r="C33" s="97">
+        <v>1.99998842592593</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A34" s="95">
+        <v>18</v>
+      </c>
+      <c r="B34" s="93">
+        <v>25569</v>
+      </c>
+      <c r="C34" s="97">
+        <v>25569</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="95">
+        <v>19</v>
+      </c>
+      <c r="B35" s="93">
+        <v>1462</v>
+      </c>
+      <c r="C35" s="97">
+        <v>1462</v>
+      </c>
+      <c r="D35" s="32" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="95">
+        <v>20</v>
+      </c>
+      <c r="B36" s="93">
+        <v>1521</v>
+      </c>
+      <c r="C36" s="97">
+        <v>1521</v>
+      </c>
+      <c r="D36" s="32" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="95">
+        <v>21</v>
+      </c>
+      <c r="B37" s="93">
+        <v>25569</v>
+      </c>
+      <c r="C37" s="97">
+        <v>25569</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A38" s="95">
+        <v>22</v>
+      </c>
+      <c r="B38" s="93">
+        <v>36526</v>
+      </c>
+      <c r="C38" s="97">
+        <v>36526</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A39" s="95">
+        <v>23</v>
+      </c>
+      <c r="B39" s="93">
+        <v>36585</v>
+      </c>
+      <c r="C39" s="97">
+        <v>36585</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="C40" s="92"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4939,15 +6010,15 @@
       <c r="A9" s="31" t="s">
         <v>570</v>
       </c>
-      <c r="E9" s="96" t="s">
+      <c r="E9" s="102" t="s">
         <v>578</v>
       </c>
-      <c r="F9" s="96"/>
-      <c r="G9" s="96"/>
-      <c r="H9" s="97" t="s">
+      <c r="F9" s="102"/>
+      <c r="G9" s="102"/>
+      <c r="H9" s="103" t="s">
         <v>642</v>
       </c>
-      <c r="I9" s="98"/>
+      <c r="I9" s="104"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A10" s="40" t="s">
@@ -6536,7 +7607,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
@@ -7695,7 +8766,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
@@ -9971,15 +11042,15 @@
     <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="18" spans="2:7" s="1" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="C18" s="92"/>
-      <c r="D18" s="93" t="s">
+      <c r="C18" s="98"/>
+      <c r="D18" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="95"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="101"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B19" s="34" t="s">
@@ -10678,7 +11749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
